--- a/db/persons_data.xlsx
+++ b/db/persons_data.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000000</v>
+        <v>1008000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100000</v>
+        <v>115700</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>

--- a/db/persons_data.xlsx
+++ b/db/persons_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1008000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>115700</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -767,67 +767,100 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1890633974</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Прозоров</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>иван</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Заявка</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1010101</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>79535012152</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1172020270</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Иванов</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Иванович</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Заявка</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>50</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>89215428101</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Мужской</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2001-05-13 00:00:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>УФМС по Вологодской области</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2021-06-09 00:00:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>?</t>
         </is>

--- a/db/persons_data.xlsx
+++ b/db/persons_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,134 +527,134 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Мужской</t>
+          <t>?</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2002-12-20 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3522</t>
+          <t>?</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>343432</t>
+          <t>?</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>УФМС по Вологодской области</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2022-12-29 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5016217238</v>
+        <v>1172020272</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Дорофеева</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Валерия</t>
+          <t>Закудалов</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Васильевна</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Администратор</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>89875026905</t>
+          <t>89215428101</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Женский</t>
+          <t>Мужской</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2002-11-05 00:00:00</t>
+          <t>1984-06-23 00:00:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>434137</t>
+          <t>676221</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>УФМС по Пензенской области</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-15 00:00:00</t>
+          <t>2002-07-24 00:00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1172020272</v>
+        <v>1172020271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Никита</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Закудалов</t>
+          <t>Кудряшов</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -668,27 +668,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1984-06-23 00:00:00</t>
+          <t>2003-09-04 00:00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>?</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>676221</t>
+          <t>?</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>УФМС по Вологодской области</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2002-07-24 00:00:00</t>
+          <t>2023-09-24 00:00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -699,44 +699,44 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1172020271</v>
+        <v>1890633974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Никита</t>
+          <t>Прозоров</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Кудряшов</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>Администратор</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>89215428101</t>
+          <t>79535012152</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Мужской</t>
+          <t>?</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2003-09-04 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -751,116 +751,83 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>УФМС по Вологодской области</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-24 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1890633974</v>
+        <v>1172020270</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Прозоров</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>иван</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1010101</v>
+        <v>50</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>79535012152</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1172020270</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Сергей</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>89215428101</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Мужской</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>2001-05-13 00:00:00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>УФМС по Вологодской области</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2021-06-09 00:00:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>?</t>
         </is>

--- a/db/persons_data.xlsx
+++ b/db/persons_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Персональные данные" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Персональные данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,11 +514,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Администратор</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4843</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1172020272</v>
+        <v>5016217238</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Дорофеева</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Закудалов</t>
+          <t>Валерия</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Васильевна</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -586,66 +586,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>89215428101</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Мужской</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1984-06-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3502</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>676221</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2002-07-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>35</t>
+          <t>79875026905</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1172020271</v>
+        <v>1172020272</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Никита</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Кудряшов</t>
+          <t>Закудалов</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -654,7 +619,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>3600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -668,27 +633,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2003-09-04 00:00:00</t>
+          <t>1984-06-23 00:00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>676221</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>УФМС по Вологодской области</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-24 00:00:00</t>
+          <t>2002-07-24 00:00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -699,44 +664,44 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1890633974</v>
+        <v>1172020271</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Прозоров</t>
+          <t>Никита</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Кудряшов</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Администратор</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>750</v>
+        <v>20</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>79535012152</t>
+          <t>89215428101</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Мужской</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2003-09-04 00:00:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -751,83 +716,151 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>УФМС по Вологодской области</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2023-09-24 00:00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1890633974</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Прозоров</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Администратор</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7850</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>79535012152</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>1172020270</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Сергей</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Иванов</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Иванович</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Грузчик</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>50</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>89215428101</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Мужской</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>2001-05-13 00:00:00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>УФМС по Вологодской области</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2021-06-09 00:00:00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>?</t>
         </is>

--- a/db/persons_data.xlsx
+++ b/db/persons_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,21 +495,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1172020269</v>
+        <v>5016217238</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Дорофеев</t>
+          <t>Дорофеева</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Валерия</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Васильевич</t>
+          <t>Васильевна</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,11 +518,11 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4843</v>
+        <v>99999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>89215428101</t>
+          <t>79875026905</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -563,21 +563,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5016217238</v>
+        <v>1172020272</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Дорофеева</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Валерия</t>
+          <t>Закудалов</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Васильевна</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -586,31 +586,66 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>99999999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>79875026905</t>
+          <t>89215428101</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1984-06-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3502</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>676221</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2002-07-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1172020272</v>
+        <v>1172020271</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Никита</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Закудалов</t>
+          <t>Кудряшов</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -619,7 +654,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3600</v>
+        <v>99999999</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -633,27 +668,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1984-06-23 00:00:00</t>
+          <t>2003-09-04 00:00:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>?</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>676221</t>
+          <t>?</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>УФМС по Вологодской области</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2002-07-24 00:00:00</t>
+          <t>2023-09-24 00:00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -664,44 +699,44 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1172020271</v>
+        <v>1890633974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Никита</t>
+          <t>Прозоров</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Кудряшов</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Грузчик</t>
+          <t>Администратор</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>99999999</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>89215428101</t>
+          <t>79535012152</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Мужской</t>
+          <t>?</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2003-09-04 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -716,60 +751,60 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>УФМС по Вологодской области</t>
+          <t>?</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-24 00:00:00</t>
+          <t>?</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>?</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1890633974</v>
+        <v>1172020270</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Прозоров</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Администратор</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7850</v>
+        <v>99999999</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>79535012152</t>
+          <t>89215428101</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>Мужской</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2001-05-13 00:00:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -784,83 +819,15 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>УФМС по Вологодской области</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2021-06-09 00:00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1172020270</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Сергей</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Иванов</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Грузчик</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>89215428101</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Мужской</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2001-05-13 00:00:00</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>УФМС по Вологодской области</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2021-06-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
         <is>
           <t>?</t>
         </is>
